--- a/drug_delivery_lab_results.xlsx
+++ b/drug_delivery_lab_results.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clairenottman/Documents/Drug_Delivery_Lab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89C712D2-DC8C-314F-8332-BBCB8E5E2A08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5EE3BA4-C040-C442-9864-CDEDD45035C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16460" activeTab="2" xr2:uid="{BF73273A-6512-9A4C-B83E-F331969C0208}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16460" activeTab="3" xr2:uid="{BF73273A-6512-9A4C-B83E-F331969C0208}"/>
   </bookViews>
   <sheets>
     <sheet name="small" sheetId="1" r:id="rId1"/>
     <sheet name="large" sheetId="2" r:id="rId2"/>
     <sheet name="T_test" sheetId="3" r:id="rId3"/>
+    <sheet name="experimental_results" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="14">
   <si>
     <t>Time</t>
   </si>
@@ -68,13 +69,25 @@
   </si>
   <si>
     <t>concentration</t>
+  </si>
+  <si>
+    <t>Absorbance</t>
+  </si>
+  <si>
+    <t>Concentration (measured using standard curve, diluted)</t>
+  </si>
+  <si>
+    <t>LARGE</t>
+  </si>
+  <si>
+    <t>SMALL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -83,6 +96,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -109,9 +137,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -507,7 +539,7 @@
         <v>0.37207920793333332</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F3:F4" si="1">STDEV(B4,B7,B10)/SQRT(3)</f>
+        <f t="shared" ref="F4" si="1">STDEV(B4,B7,B10)/SQRT(3)</f>
         <v>3.2099421183618422E-2</v>
       </c>
     </row>
@@ -709,7 +741,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EC2C2BE-F2AC-9546-AD18-D45756FEF447}">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -927,4 +959,303 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82C4D756-5B13-054F-A761-A52C8944CCEA}">
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="47.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="47.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>30</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1.8029999999999999</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.42366336630000001</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.84732673270000003</v>
+      </c>
+      <c r="E3" s="1">
+        <v>30</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1.0349999999999999</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.23356435640000001</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0.46712871290000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>60</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1.44</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.33381188119999999</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.66762376239999999</v>
+      </c>
+      <c r="E4" s="1">
+        <v>60</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1.45</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.33628712869999999</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.67257425739999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>90</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1.7669999999999999</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.41475247520000003</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.82950495049999995</v>
+      </c>
+      <c r="E5" s="1">
+        <v>90</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.21797029700000001</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.43594059410000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>30</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1.4950000000000001</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.34742574259999998</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.69485148510000005</v>
+      </c>
+      <c r="E6" s="1">
+        <v>30</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1.0569999999999999</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.239009901</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0.47801980199999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>60</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1.506</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.35014851489999999</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.70029702969999996</v>
+      </c>
+      <c r="E7" s="1">
+        <v>60</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1.21</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.27688118810000001</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0.55376237620000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>90</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1.63</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.38084158420000003</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.76168316830000005</v>
+      </c>
+      <c r="E8" s="1">
+        <v>90</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.79</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.1729207921</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0.3458415842</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>30</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1.389</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.32118811879999998</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.64237623759999996</v>
+      </c>
+      <c r="E9" s="1">
+        <v>30</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.88100000000000001</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.19544554459999999</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0.39089108909999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>60</v>
+      </c>
+      <c r="B10" s="1">
+        <v>2.4049999999999998</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.57267326730000001</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1.1453465350000001</v>
+      </c>
+      <c r="E10" s="1">
+        <v>60</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1.1990000000000001</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.2741584158</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0.54831683170000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>90</v>
+      </c>
+      <c r="B11" s="1">
+        <v>2.6219999999999999</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.62638613860000003</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1.252772277</v>
+      </c>
+      <c r="E11" s="1">
+        <v>90</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.16722772280000001</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0.3344554455</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/drug_delivery_lab_results.xlsx
+++ b/drug_delivery_lab_results.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clairenottman/Documents/Drug_Delivery_Lab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5EE3BA4-C040-C442-9864-CDEDD45035C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7118AF3F-4ECD-7341-8D49-B030BC84A7C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16460" activeTab="3" xr2:uid="{BF73273A-6512-9A4C-B83E-F331969C0208}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16420" activeTab="4" xr2:uid="{BF73273A-6512-9A4C-B83E-F331969C0208}"/>
   </bookViews>
   <sheets>
     <sheet name="small" sheetId="1" r:id="rId1"/>
     <sheet name="large" sheetId="2" r:id="rId2"/>
     <sheet name="T_test" sheetId="3" r:id="rId3"/>
     <sheet name="experimental_results" sheetId="4" r:id="rId4"/>
+    <sheet name="bead_size_t_test" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="15">
   <si>
     <t>Time</t>
   </si>
@@ -81,6 +82,9 @@
   </si>
   <si>
     <t>SMALL</t>
+  </si>
+  <si>
+    <t>measurement</t>
   </si>
 </sst>
 </file>
@@ -965,7 +969,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82C4D756-5B13-054F-A761-A52C8944CCEA}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
@@ -1258,4 +1262,94 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DC470F2-FB20-BF43-AB29-D45242C95DD0}">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>6.24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>5.4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>4.78</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3.89</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4.21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>4.13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>3.68</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>3.4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/drug_delivery_lab_results.xlsx
+++ b/drug_delivery_lab_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clairenottman/Documents/Drug_Delivery_Lab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7118AF3F-4ECD-7341-8D49-B030BC84A7C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66256C49-F097-1D47-8343-3AC86431BC95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16420" activeTab="4" xr2:uid="{BF73273A-6512-9A4C-B83E-F331969C0208}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16360" activeTab="3" xr2:uid="{BF73273A-6512-9A4C-B83E-F331969C0208}"/>
   </bookViews>
   <sheets>
     <sheet name="small" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="16">
   <si>
     <t>Time</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>measurement</t>
+  </si>
+  <si>
+    <t>Std_Dev</t>
   </si>
 </sst>
 </file>
@@ -462,10 +465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BCE977C-6AA1-DD43-9AC7-1274470ECF2E}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" activeCellId="2" sqref="B4 B7 B10"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -473,7 +476,7 @@
     <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -489,8 +492,11 @@
       <c r="F1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>30</v>
       </c>
@@ -508,8 +514,12 @@
         <f>STDEV(B2,B5,B8)/SQRT(3)</f>
         <v>2.7408639874707295E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2">
+        <f>STDEV(B2,B5,B8)</f>
+        <v>4.7473156829351298E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>60</v>
       </c>
@@ -527,8 +537,12 @@
         <f>STDEV(B3,B6,B9)/SQRT(3)</f>
         <v>4.0542039162917327E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3">
+        <f t="shared" ref="G3:G4" si="1">STDEV(B3,B6,B9)</f>
+        <v>7.0220871672620006E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>90</v>
       </c>
@@ -543,11 +557,15 @@
         <v>0.37207920793333332</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4" si="1">STDEV(B4,B7,B10)/SQRT(3)</f>
+        <f t="shared" ref="F4" si="2">STDEV(B4,B7,B10)/SQRT(3)</f>
         <v>3.2099421183618422E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4">
+        <f>STDEV(B4,B7,B10)</f>
+        <v>5.5597828383579816E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>30</v>
       </c>
@@ -555,7 +573,7 @@
         <v>0.47801980199999999</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>60</v>
       </c>
@@ -563,7 +581,7 @@
         <v>0.55376237620000002</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>90</v>
       </c>
@@ -571,7 +589,7 @@
         <v>0.3458415842</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>30</v>
       </c>
@@ -579,7 +597,7 @@
         <v>0.39089108909999998</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>60</v>
       </c>
@@ -587,7 +605,7 @@
         <v>0.54831683170000001</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>90</v>
       </c>
@@ -602,10 +620,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7802D2C-3E24-004A-A3B0-2BD6DEA944FC}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" activeCellId="2" sqref="B4 B7 B10"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -614,7 +632,7 @@
     <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -630,8 +648,11 @@
       <c r="F1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>30</v>
       </c>
@@ -649,8 +670,12 @@
         <f>STDEV(B2,B5,B8)/SQRT(3)</f>
         <v>6.146681949212935E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2">
+        <f>STDEV(B2,B5,B8)</f>
+        <v>0.10646365434003305</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>60</v>
       </c>
@@ -668,8 +693,12 @@
         <f>STDEV(B3,B6,B9)/SQRT(3)</f>
         <v>0.15408432972896918</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3">
+        <f t="shared" ref="G3:G4" si="0">STDEV(B3,B6,B9)</f>
+        <v>0.26688188774077021</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>90</v>
       </c>
@@ -687,8 +716,12 @@
         <f>STDEV(B4,B7,B10)/SQRT(3)</f>
         <v>0.15364525094931503</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>0.26612138098588389</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>30</v>
       </c>
@@ -696,7 +729,7 @@
         <v>0.69485148510000005</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>60</v>
       </c>
@@ -704,7 +737,7 @@
         <v>0.70029702969999996</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>90</v>
       </c>
@@ -712,7 +745,7 @@
         <v>0.76168316830000005</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>30</v>
       </c>
@@ -720,7 +753,7 @@
         <v>0.64237623759999996</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>60</v>
       </c>
@@ -728,7 +761,7 @@
         <v>1.1453465350000001</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>90</v>
       </c>
@@ -969,7 +1002,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82C4D756-5B13-054F-A761-A52C8944CCEA}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
@@ -1268,7 +1301,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DC470F2-FB20-BF43-AB29-D45242C95DD0}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
